--- a/Outputs/3. Prosumer percentage/Base Cases/0/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/0/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2904358.09903137</v>
+        <v>1597489.900757302</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341311.8019598786</v>
+        <v>17595463.03907222</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8591155.494060561</v>
+        <v>4483893.219931115</v>
       </c>
     </row>
     <row r="11">
@@ -23255,76 +23255,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F11" t="n">
-        <v>35.18385622499801</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>65.25529425175858</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H11" t="n">
-        <v>11.50052426013127</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>21.87367828024878</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>13.06588294833773</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N11" t="n">
-        <v>11.5494822984798</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>12.66284751426048</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P11" t="n">
-        <v>14.50687205633255</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.76286523051715</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="12">
@@ -23334,76 +23334,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23413,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="14">
@@ -23492,76 +23492,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F14" t="n">
-        <v>23.68333196486674</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>53.75476999162731</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>10.37315402011751</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>1.565358688206459</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04895803834853041</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>1.162323254129205</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P14" t="n">
-        <v>3.006347796201283</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.262340970385878</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="15">
@@ -23571,76 +23571,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="16">
@@ -23650,76 +23650,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="17">
@@ -23729,76 +23729,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F17" t="n">
-        <v>22.52100871073753</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>52.59244673749811</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>9.210830765988305</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4030354340772533</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P17" t="n">
-        <v>1.844024542072077</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.100017716256673</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="18">
@@ -23808,76 +23808,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="19">
@@ -23887,76 +23887,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="20">
@@ -23966,76 +23966,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F20" t="n">
-        <v>22.52100871073753</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>52.59244673749811</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>9.210830765988305</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4030354340772533</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P20" t="n">
-        <v>1.844024542072077</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.100017716256673</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="21">
@@ -24045,76 +24045,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="22">
@@ -24124,76 +24124,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="23">
@@ -24203,76 +24203,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F23" t="n">
-        <v>22.52100871073753</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>52.59244673749811</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>9.210830765988305</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4030354340772533</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P23" t="n">
-        <v>1.844024542072077</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.100017716256673</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="24">
@@ -24282,76 +24282,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="25">
@@ -24361,76 +24361,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="26">
@@ -24440,76 +24440,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F26" t="n">
-        <v>35.18385622499801</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>65.25529425175858</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H26" t="n">
-        <v>11.50052426013127</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>21.87367828024878</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>13.06588294833773</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N26" t="n">
-        <v>11.5494822984798</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>12.66284751426048</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P26" t="n">
-        <v>14.50687205633255</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.76286523051715</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="27">
@@ -24519,76 +24519,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="28">
@@ -24598,76 +24598,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -24677,76 +24677,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F29" t="n">
-        <v>23.68333196486674</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>53.75476999162731</v>
+        <v>426.502040297739</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>10.37315402011751</v>
+        <v>383.1204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1.565358688206459</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04895803834853041</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>1.162323254129205</v>
+        <v>373.9095935602409</v>
       </c>
       <c r="P29" t="n">
-        <v>3.006347796201283</v>
+        <v>375.753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.262340970385878</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="30">
@@ -24756,76 +24756,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="31">
@@ -24835,76 +24835,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="32">
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>21.42099099448086</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G32" t="n">
-        <v>51.49242902124143</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24944,19 +24944,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>8.110813049731632</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7440068258154042</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="33">
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>21.42099099448086</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G35" t="n">
-        <v>51.49242902124143</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25181,19 +25181,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>8.110813049731632</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7440068258154042</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="36">
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>21.42099099448086</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G38" t="n">
-        <v>51.49242902124143</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25418,19 +25418,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.110813049731632</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7440068258154042</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="39">
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>28.34658691032325</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G41" t="n">
-        <v>58.41802493708383</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H41" t="n">
-        <v>4.663254945456515</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25655,19 +25655,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>15.03640896557403</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M41" t="n">
-        <v>6.228613633662974</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N41" t="n">
-        <v>4.712212983805045</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O41" t="n">
-        <v>5.825578199585721</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P41" t="n">
-        <v>7.669602741657798</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.925595915842393</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="42">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.08666662522654</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7.155761156227982</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>51.3476354305858</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G44" t="n">
-        <v>81.41907345734637</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H44" t="n">
-        <v>27.66430346571906</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25889,28 +25889,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>12.56304110770077</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.03745748583657</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M44" t="n">
-        <v>29.22966215392552</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N44" t="n">
-        <v>27.71326150406759</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O44" t="n">
-        <v>28.82662671984826</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P44" t="n">
-        <v>30.67065126192034</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.16377920558779</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.243532107572037</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.92664443610494</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737423.7310304821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>743602.9627154506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744091.6203982406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744091.6203982406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744091.6203982406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737423.7310304821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>743602.9627154506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>744444.0369019576</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>744444.0369019576</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744444.0369019576</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741097.3958332568</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725502.4294852414</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996991.2386902552</v>
+        <v>996991.2386902553</v>
       </c>
       <c r="C2" t="n">
-        <v>996991.2386902552</v>
+        <v>996991.2386902553</v>
       </c>
       <c r="D2" t="n">
-        <v>996991.2386902552</v>
+        <v>996991.2386902553</v>
       </c>
       <c r="E2" t="n">
-        <v>983231.6413739761</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>991470.6169539342</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>992122.1605309875</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>992122.1605309875</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>992122.1605309875</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>983231.6413739761</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>991470.6169539342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>992592.0492026102</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="M2" t="n">
-        <v>992592.0492026102</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="N2" t="n">
-        <v>992592.0492026102</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="O2" t="n">
-        <v>988129.8611110091</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="P2" t="n">
-        <v>967336.5726469888</v>
+        <v>991470.6169539343</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>288997.3968367844</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9200.419408105017</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>929.8586033033644</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278867.118825376</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>18400.83881621003</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2739.731379612067</v>
+        <v>298197.8162448894</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>273326.642092702</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>561196.2485531277</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>565898.7845505781</v>
       </c>
-      <c r="G4" t="n">
-        <v>566270.664172658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>566270.664172658</v>
-      </c>
-      <c r="I4" t="n">
-        <v>566270.664172658</v>
-      </c>
-      <c r="J4" t="n">
-        <v>561196.2485531277</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>565898.7845505781</v>
       </c>
-      <c r="L4" t="n">
-        <v>566538.8611556028</v>
-      </c>
-      <c r="M4" t="n">
-        <v>566538.8611556028</v>
-      </c>
       <c r="N4" t="n">
-        <v>566538.8611556028</v>
+        <v>565898.7845505781</v>
       </c>
       <c r="O4" t="n">
-        <v>563991.9911079244</v>
+        <v>565898.7845505781</v>
       </c>
       <c r="P4" t="n">
-        <v>552123.8666598699</v>
+        <v>565898.7845505781</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30369.65269333953</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>31336.49026736451</v>
       </c>
-      <c r="G5" t="n">
-        <v>31434.2056210159</v>
-      </c>
-      <c r="H5" t="n">
-        <v>31434.2056210159</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31434.2056210159</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30369.65269333953</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>31336.49026736451</v>
       </c>
-      <c r="L5" t="n">
-        <v>31526.68301040388</v>
-      </c>
-      <c r="M5" t="n">
-        <v>31526.68301040388</v>
-      </c>
       <c r="N5" t="n">
-        <v>31526.68301040388</v>
+        <v>31336.49026736451</v>
       </c>
       <c r="O5" t="n">
-        <v>30944.45508735492</v>
+        <v>31336.49026736451</v>
       </c>
       <c r="P5" t="n">
-        <v>29010.77993930497</v>
+        <v>31336.49026736451</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26528,40 @@
         <v>394313.8650159191</v>
       </c>
       <c r="E6" t="n">
-        <v>102668.3432907244</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>385034.9227278866</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>393487.4321340103</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>394417.2907373136</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>394417.2907373136</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>112798.6213021328</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>375834.5033197816</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>391786.7736569913</v>
+        <v>96037.5258911023</v>
       </c>
       <c r="M6" t="n">
-        <v>394526.5050366034</v>
+        <v>394235.3421359917</v>
       </c>
       <c r="N6" t="n">
-        <v>394526.5050366034</v>
+        <v>394235.3421359917</v>
       </c>
       <c r="O6" t="n">
-        <v>119866.7728230277</v>
+        <v>394235.3421359917</v>
       </c>
       <c r="P6" t="n">
-        <v>386201.9260478139</v>
+        <v>394235.3421359917</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>372.7472703061117</v>
       </c>
-      <c r="G2" t="n">
-        <v>373.9095935602409</v>
-      </c>
-      <c r="H2" t="n">
-        <v>373.9095935602409</v>
-      </c>
-      <c r="I2" t="n">
-        <v>373.9095935602409</v>
-      </c>
-      <c r="J2" t="n">
-        <v>361.2467460459804</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>372.7472703061117</v>
       </c>
-      <c r="L2" t="n">
-        <v>375.0096112764976</v>
-      </c>
-      <c r="M2" t="n">
-        <v>375.0096112764976</v>
-      </c>
       <c r="N2" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O2" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P2" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.50052426013127</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.162323254129205</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>348.58389853172</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.00104852026254</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.424664224515084</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>341.6583026158776</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.50052426013127</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.162323254129205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>348.58389853172</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>23.00104852026254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28403,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>372.7962283444602</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28640,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>372.7962283444602</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28877,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>372.7962283444602</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>373.9095935602409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,76 +29114,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29351,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29588,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29758,10 +29758,10 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F32" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G32" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H32" t="n">
         <v>372.7472703061117</v>
@@ -29776,19 +29776,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M32" t="n">
-        <v>374.3126289943182</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N32" t="n">
-        <v>372.7962283444602</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O32" t="n">
-        <v>373.9095935602409</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P32" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q32" t="n">
         <v>361.2467460459804</v>
@@ -29815,7 +29815,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="33">
@@ -29995,10 +29995,10 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F35" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G35" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H35" t="n">
         <v>372.7472703061117</v>
@@ -30013,19 +30013,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M35" t="n">
-        <v>374.3126289943182</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N35" t="n">
-        <v>372.7962283444602</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O35" t="n">
-        <v>373.9095935602409</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P35" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q35" t="n">
         <v>361.2467460459804</v>
@@ -30052,7 +30052,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="36">
@@ -30232,10 +30232,10 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F38" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G38" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H38" t="n">
         <v>372.7472703061117</v>
@@ -30250,19 +30250,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M38" t="n">
-        <v>374.3126289943182</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N38" t="n">
-        <v>372.7962283444602</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O38" t="n">
-        <v>373.9095935602409</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P38" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q38" t="n">
         <v>361.2467460459804</v>
@@ -30289,7 +30289,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>375.0096112764976</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="39">
@@ -30469,13 +30469,13 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I41" t="n">
         <v>341.7654321274525</v>
@@ -30487,19 +30487,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q41" t="n">
         <v>361.2467460459804</v>
@@ -30526,7 +30526,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>368.0840153606552</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="42">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>345.0829668403927</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C44" t="n">
         <v>322.4677940726305</v>
@@ -30703,16 +30703,16 @@
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>345.0829668403927</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I44" t="n">
         <v>341.7654321274525</v>
@@ -30721,28 +30721,28 @@
         <v>294.1995948558653</v>
       </c>
       <c r="K44" t="n">
-        <v>345.0829668403927</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q44" t="n">
-        <v>345.0829668403927</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>345.0829668403927</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>287.8980161538978</v>
@@ -30763,7 +30763,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>345.0829668403927</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="45">

--- a/Outputs/3. Prosumer percentage/Base Cases/0/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/0/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597489.900757302</v>
+        <v>2891961.907738124</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17595463.03907222</v>
+        <v>244259.5951960776</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4483893.219931115</v>
+        <v>8610423.302585831</v>
       </c>
     </row>
     <row r="11">
@@ -23255,76 +23257,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4306022709785</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G11" t="n">
-        <v>426.502040297739</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H11" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>383.1204243262292</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M11" t="n">
-        <v>374.3126289943182</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N11" t="n">
-        <v>372.7962283444602</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O11" t="n">
-        <v>373.9095935602409</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P11" t="n">
-        <v>375.753618102313</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.0096112764976</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="12">
@@ -23334,76 +23336,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23415,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,76 +23494,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>396.4306022709785</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G14" t="n">
-        <v>426.502040297739</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H14" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1204243262292</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M14" t="n">
-        <v>374.3126289943182</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N14" t="n">
-        <v>372.7962283444602</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O14" t="n">
-        <v>373.9095935602409</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P14" t="n">
-        <v>375.753618102313</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q14" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>375.0096112764976</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="15">
@@ -23571,76 +23573,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23650,76 +23652,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,76 +23731,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>396.4306022709785</v>
+        <v>23.63437392651821</v>
       </c>
       <c r="G17" t="n">
-        <v>426.502040297739</v>
+        <v>53.70581195327878</v>
       </c>
       <c r="H17" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>383.1204243262292</v>
+        <v>10.32419598176898</v>
       </c>
       <c r="M17" t="n">
-        <v>374.3126289943182</v>
+        <v>1.516400649857928</v>
       </c>
       <c r="N17" t="n">
-        <v>372.7962283444602</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>373.9095935602409</v>
+        <v>1.113365215780675</v>
       </c>
       <c r="P17" t="n">
-        <v>375.753618102313</v>
+        <v>2.957389757852752</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>375.0096112764976</v>
+        <v>2.213382932037348</v>
       </c>
     </row>
     <row r="18">
@@ -23808,76 +23810,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,76 +23889,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,76 +23968,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>396.4306022709785</v>
+        <v>23.63437392651821</v>
       </c>
       <c r="G20" t="n">
-        <v>426.502040297739</v>
+        <v>53.70581195327878</v>
       </c>
       <c r="H20" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>383.1204243262292</v>
+        <v>10.32419598176898</v>
       </c>
       <c r="M20" t="n">
-        <v>374.3126289943182</v>
+        <v>1.516400649857928</v>
       </c>
       <c r="N20" t="n">
-        <v>372.7962283444602</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>373.9095935602409</v>
+        <v>1.113365215780675</v>
       </c>
       <c r="P20" t="n">
-        <v>375.753618102313</v>
+        <v>2.957389757852752</v>
       </c>
       <c r="Q20" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.0096112764976</v>
+        <v>2.213382932037348</v>
       </c>
     </row>
     <row r="21">
@@ -24045,76 +24047,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,76 +24126,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,76 +24205,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4306022709785</v>
+        <v>23.63437392651821</v>
       </c>
       <c r="G23" t="n">
-        <v>426.502040297739</v>
+        <v>53.70581195327878</v>
       </c>
       <c r="H23" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>383.1204243262292</v>
+        <v>10.32419598176898</v>
       </c>
       <c r="M23" t="n">
-        <v>374.3126289943182</v>
+        <v>1.516400649857928</v>
       </c>
       <c r="N23" t="n">
-        <v>372.7962283444602</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>373.9095935602409</v>
+        <v>1.113365215780675</v>
       </c>
       <c r="P23" t="n">
-        <v>375.753618102313</v>
+        <v>2.957389757852752</v>
       </c>
       <c r="Q23" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>375.0096112764976</v>
+        <v>2.213382932037348</v>
       </c>
     </row>
     <row r="24">
@@ -24282,76 +24284,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,76 +24363,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,76 +24442,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4306022709785</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G26" t="n">
-        <v>426.502040297739</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H26" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>383.1204243262292</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M26" t="n">
-        <v>374.3126289943182</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N26" t="n">
-        <v>372.7962283444602</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O26" t="n">
-        <v>373.9095935602409</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P26" t="n">
-        <v>375.753618102313</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q26" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.0096112764976</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="27">
@@ -24519,76 +24521,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,76 +24600,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,76 +24679,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>358.1696334656192</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>352.2387279966206</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>396.4306022709785</v>
+        <v>23.68333196486674</v>
       </c>
       <c r="G29" t="n">
-        <v>426.502040297739</v>
+        <v>53.75476999162731</v>
       </c>
       <c r="H29" t="n">
-        <v>372.7472703061117</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>341.7654321274525</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>294.1995948558653</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>357.6460079480934</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>383.1204243262292</v>
+        <v>10.37315402011751</v>
       </c>
       <c r="M29" t="n">
-        <v>374.3126289943182</v>
+        <v>1.565358688206459</v>
       </c>
       <c r="N29" t="n">
-        <v>372.7962283444602</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="O29" t="n">
-        <v>373.9095935602409</v>
+        <v>1.162323254129205</v>
       </c>
       <c r="P29" t="n">
-        <v>375.753618102313</v>
+        <v>3.006347796201283</v>
       </c>
       <c r="Q29" t="n">
-        <v>361.2467460459804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>350.3264989479647</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>287.8980161538978</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>226.3641587569061</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0428861901385</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.0096112764976</v>
+        <v>2.262340970385878</v>
       </c>
     </row>
     <row r="30">
@@ -24756,76 +24758,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>170.3511911174186</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>156.5586620955882</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>161.7238675</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>206.1111433333334</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9923383333334</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>225.1508671422956</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>230.9678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>213.4302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>231.7188972222222</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>217.7084120482866</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.470382889785</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>236.7291939414415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>239.7221010586735</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>244.7196483586449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>258.0465074253145</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,76 +24837,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>170.5257400672264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>177.0546849705086</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>197.7486781736251</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>206.3675598390187</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>209.64654452712</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1875989570122</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>225.7543989148582</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>207.4890097560039</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>224.9918749842445</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>223.8080065798648</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>246.1956276478495</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>274.8494840618493</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>265.4963749257153</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>218.2736753476266</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9880034921566</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.68333196486674</v>
+        <v>23.63437392651821</v>
       </c>
       <c r="G32" t="n">
-        <v>53.75476999162731</v>
+        <v>53.70581195327878</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24944,19 +24946,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>10.37315402011751</v>
+        <v>10.32419598176898</v>
       </c>
       <c r="M32" t="n">
-        <v>1.565358688206459</v>
+        <v>1.516400649857928</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04895803834853041</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.162323254129205</v>
+        <v>1.113365215780675</v>
       </c>
       <c r="P32" t="n">
-        <v>3.006347796201283</v>
+        <v>2.957389757852752</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.262340970385878</v>
+        <v>2.213382932037348</v>
       </c>
     </row>
     <row r="33">
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.68333196486674</v>
+        <v>23.63437392651821</v>
       </c>
       <c r="G35" t="n">
-        <v>53.75476999162731</v>
+        <v>53.70581195327878</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25181,19 +25183,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>10.37315402011751</v>
+        <v>10.32419598176898</v>
       </c>
       <c r="M35" t="n">
-        <v>1.565358688206459</v>
+        <v>1.516400649857928</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04895803834853041</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.162323254129205</v>
+        <v>1.113365215780675</v>
       </c>
       <c r="P35" t="n">
-        <v>3.006347796201283</v>
+        <v>2.957389757852752</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.262340970385878</v>
+        <v>2.213382932037348</v>
       </c>
     </row>
     <row r="36">
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.68333196486674</v>
+        <v>23.63437392651821</v>
       </c>
       <c r="G38" t="n">
-        <v>53.75476999162731</v>
+        <v>53.70581195327878</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25418,19 +25420,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>10.37315402011751</v>
+        <v>10.32419598176898</v>
       </c>
       <c r="M38" t="n">
-        <v>1.565358688206459</v>
+        <v>1.516400649857928</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04895803834853041</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.162323254129205</v>
+        <v>1.113365215780675</v>
       </c>
       <c r="P38" t="n">
-        <v>3.006347796201283</v>
+        <v>2.957389757852752</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.262340970385878</v>
+        <v>2.213382932037348</v>
       </c>
     </row>
     <row r="39">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>743626.3450745658</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>743626.3450745658</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>743626.3450745658</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>743602.9627154506</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>743602.9627154506</v>
+        <v>743626.3450745658</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>743602.9627154506</v>
+        <v>743626.3450745658</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>743602.9627154506</v>
+        <v>743626.3450745658</v>
       </c>
     </row>
     <row r="15">
@@ -26320,34 +26322,34 @@
         <v>996991.2386902553</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>991501.7934327546</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>991501.7934327546</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>991501.7934327546</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>991470.6169539343</v>
       </c>
       <c r="L2" t="n">
-        <v>991470.6169539343</v>
+        <v>991501.7934327546</v>
       </c>
       <c r="M2" t="n">
-        <v>991470.6169539343</v>
+        <v>991501.7934327546</v>
       </c>
       <c r="N2" t="n">
-        <v>991470.6169539343</v>
+        <v>991501.7934327546</v>
       </c>
       <c r="O2" t="n">
         <v>991470.6169539343</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>298197.8162448893</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39.16643067882433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>298158.6498142105</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>298197.8162448894</v>
+        <v>78.33286135764865</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>298119.4833835317</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,34 +26426,34 @@
         <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>565898.7845505781</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>565898.7845505781</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>565916.5790582208</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>565916.5790582208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>565916.5790582208</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>565898.7845505781</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>565898.7845505781</v>
       </c>
       <c r="L4" t="n">
-        <v>565898.7845505781</v>
+        <v>565916.5790582208</v>
       </c>
       <c r="M4" t="n">
-        <v>565898.7845505781</v>
+        <v>565916.5790582208</v>
       </c>
       <c r="N4" t="n">
-        <v>565898.7845505781</v>
+        <v>565916.5790582208</v>
       </c>
       <c r="O4" t="n">
         <v>565898.7845505781</v>
@@ -26476,34 +26478,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>31336.49026736451</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>31336.49026736451</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>31340.60612069043</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>31340.60612069043</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>31340.60612069043</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>31336.49026736451</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>31336.49026736451</v>
       </c>
       <c r="L5" t="n">
-        <v>31336.49026736451</v>
+        <v>31340.60612069043</v>
       </c>
       <c r="M5" t="n">
-        <v>31336.49026736451</v>
+        <v>31340.60612069043</v>
       </c>
       <c r="N5" t="n">
-        <v>31336.49026736451</v>
+        <v>31340.60612069043</v>
       </c>
       <c r="O5" t="n">
         <v>31336.49026736451</v>
@@ -26528,37 +26530,37 @@
         <v>394313.8650159191</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>96037.52589110241</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>394235.3421359917</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>394205.4418231645</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>394244.6082538433</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>394244.6082538433</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>96076.69232178121</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>394235.3421359917</v>
       </c>
       <c r="L6" t="n">
-        <v>96037.5258911023</v>
+        <v>394166.2753924857</v>
       </c>
       <c r="M6" t="n">
-        <v>394235.3421359917</v>
+        <v>394244.6082538433</v>
       </c>
       <c r="N6" t="n">
-        <v>394235.3421359917</v>
+        <v>394244.6082538433</v>
       </c>
       <c r="O6" t="n">
-        <v>394235.3421359917</v>
+        <v>96115.85875246002</v>
       </c>
       <c r="P6" t="n">
         <v>394235.3421359917</v>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="L2" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M2" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N2" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>372.7472703061117</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>372.6983122677631</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>372.7472703061117</v>
+        <v>0.09791607669706082</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>372.6493542294146</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.04895803834853041</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>372.6983122677631</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>372.7962283444602</v>
       </c>
     </row>
     <row r="24">
@@ -29114,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>341.7654321274525</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>294.1995948558653</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>357.6460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>361.2467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>350.3264989479647</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>287.8980161538978</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>226.3641587569061</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>248.0428861901385</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>372.7472703061117</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>170.3511911174186</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>156.5586620955882</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>161.7238675</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>206.1111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>230.9678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>236.7291939414415</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>239.7221010586735</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>244.7196483586449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>258.0465074253145</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>170.5257400672264</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>177.0546849705086</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>197.7486781736251</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>206.3675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>209.64654452712</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>219.1875989570122</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>225.7543989148582</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>207.4890097560039</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>224.9918749842445</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>223.8080065798648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>246.1956276478495</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>274.8494840618493</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>265.4963749257153</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.2736753476266</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>292.9880034921566</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="32">
@@ -29758,10 +29760,10 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="G32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H32" t="n">
         <v>372.7472703061117</v>
@@ -29776,19 +29778,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="P32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="Q32" t="n">
         <v>361.2467460459804</v>
@@ -29815,7 +29817,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
     </row>
     <row r="33">
@@ -29995,10 +29997,10 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="G35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H35" t="n">
         <v>372.7472703061117</v>
@@ -30013,19 +30015,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="P35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="Q35" t="n">
         <v>361.2467460459804</v>
@@ -30052,7 +30054,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
     </row>
     <row r="36">
@@ -30232,10 +30234,10 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="G38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="H38" t="n">
         <v>372.7472703061117</v>
@@ -30250,19 +30252,19 @@
         <v>357.6460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="M38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="N38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="P38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="Q38" t="n">
         <v>361.2467460459804</v>
@@ -30289,7 +30291,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>372.7472703061117</v>
+        <v>372.7962283444602</v>
       </c>
     </row>
     <row r="39">
